--- a/data-raw/Johdanto-kuvioiden_data_2021.xlsx
+++ b/data-raw/Johdanto-kuvioiden_data_2021.xlsx
@@ -24583,14 +24583,20 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f5646ceb200daae7218f17100941a68c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33bd753129a1708488b63108d2e37b5d" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="9e0b2c17069702781a5de8ad55f0b85f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" xmlns:ns3="a9ba0a46-c686-46a2-ba56-670af7ed77b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa8050250656ce68e4eaea5737762b71" ns2:_="" ns3:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <xsd:import namespace="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -24603,6 +24609,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -24644,6 +24652,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Kuvien tunnisteet" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="356edcfc-df4a-4d49-8ce2-3e2fc6f53052" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a9ba0a46-c686-46a2-ba56-670af7ed77b3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dc117ed9-d37b-43cc-a07a-8424594aee70}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="27bd9480-4604-4a00-8fd0-46e70e4f66a1">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -24770,19 +24800,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115EEFB7-967C-438A-AB20-5DF7A411E641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024BE509-5D91-4583-AFE9-3D8F8E62542E}"/>
 </file>